--- a/stability_analysis/data/cases/OperationData_IEEE_9.xlsx
+++ b/stability_analysis/data/cases/OperationData_IEEE_9.xlsx
@@ -1,33 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francesca\Documents\SS_pyTOOL\tool\data\cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francesca\Documents\StabilityAnalysis\stability_analysis\data\cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8408BE1-3D62-4D2A-A356-CA836B77B6C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBBB920-89F3-4E0E-935A-41E743B0314A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21555" windowHeight="7995" activeTab="2" xr2:uid="{F5B77F4E-7F7E-4BC2-AB66-EDAA4A3DBABC}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="21624" windowHeight="11112" activeTab="1" xr2:uid="{F5B77F4E-7F7E-4BC2-AB66-EDAA4A3DBABC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Generators" sheetId="1" r:id="rId1"/>
-    <sheet name="Demand" sheetId="2" r:id="rId2"/>
-    <sheet name="Loads" sheetId="3" r:id="rId3"/>
+    <sheet name="Generators_old" sheetId="4" r:id="rId1"/>
+    <sheet name="Generators" sheetId="1" r:id="rId2"/>
+    <sheet name="Demand" sheetId="2" r:id="rId3"/>
+    <sheet name="Loads" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Bus Name</t>
   </si>
@@ -96,6 +106,12 @@
   </si>
   <si>
     <t>BUS5</t>
+  </si>
+  <si>
+    <t>Pmin_SG</t>
+  </si>
+  <si>
+    <t>Pmin_CIG</t>
   </si>
 </sst>
 </file>
@@ -486,21 +502,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5487896-2B0C-48CA-BF87-846EA5F2012F}">
-  <dimension ref="A1:L4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D02D99B1-60F4-401D-ACB1-35D80EC2E6D4}">
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -537,8 +553,14 @@
       <c r="L1" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -582,8 +604,14 @@
         <f>0.8*D2</f>
         <v>145.6</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -620,15 +648,21 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K4" si="5">0.8*C3</f>
+        <f t="shared" ref="K3:L4" si="5">0.8*C3</f>
         <v>74.400000000000006</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L4" si="6">0.8*D3</f>
+        <f t="shared" si="5"/>
         <v>173.60000000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -669,8 +703,14 @@
         <v>67.2</v>
       </c>
       <c r="L4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>156.80000000000001</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -679,37 +719,224 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CFC3C8-B0FD-432F-A10D-A4681A0DE583}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5487896-2B0C-48CA-BF87-846EA5F2012F}">
+  <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <f>SUM(Generators!F2:F4)*0.9</f>
-        <v>612</v>
+      <c r="K1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>17</v>
       </c>
       <c r="B2">
-        <f>SUM(Generators!F2:F4)*0.2</f>
-        <v>136</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <f>0.3*E2</f>
+        <v>78</v>
+      </c>
+      <c r="D2">
+        <f>0.7*E2</f>
+        <v>182</v>
+      </c>
+      <c r="E2">
+        <v>260</v>
+      </c>
+      <c r="F2">
+        <f>E2*0.95</f>
+        <v>247</v>
+      </c>
+      <c r="G2">
+        <f>E2*0.2</f>
+        <v>52</v>
+      </c>
+      <c r="H2">
+        <f>F2*0.33</f>
+        <v>81.510000000000005</v>
+      </c>
+      <c r="I2">
+        <f>-F2*0.33</f>
+        <v>-81.510000000000005</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <f>0.95*C2</f>
+        <v>74.099999999999994</v>
+      </c>
+      <c r="L2">
+        <f>0.8*D2</f>
+        <v>145.6</v>
+      </c>
+      <c r="M2">
+        <f>C2*0.2</f>
+        <v>15.600000000000001</v>
+      </c>
+      <c r="N2">
+        <f>D2*0.2</f>
+        <v>36.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C4" si="0">0.3*E3</f>
+        <v>93</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D4" si="1">0.7*E3</f>
+        <v>217</v>
+      </c>
+      <c r="E3">
+        <v>310</v>
+      </c>
+      <c r="F3">
+        <f>E3*0.95</f>
+        <v>294.5</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G4" si="2">E3*0.2</f>
+        <v>62</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H4" si="3">F3*0.33</f>
+        <v>97.185000000000002</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I4" si="4">-F3*0.33</f>
+        <v>-97.185000000000002</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K4" si="5">0.95*C3</f>
+        <v>88.35</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L4" si="6">0.8*D3</f>
+        <v>173.60000000000002</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M4" si="7">C3*0.2</f>
+        <v>18.600000000000001</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N4" si="8">D3*0.2</f>
+        <v>43.400000000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>196</v>
+      </c>
+      <c r="E4">
+        <v>280</v>
+      </c>
+      <c r="F4">
+        <f>E4*0.95</f>
+        <v>266</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="3"/>
+        <v>87.78</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="4"/>
+        <v>-87.78</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="5"/>
+        <v>79.8</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="6"/>
+        <v>156.80000000000001</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="7"/>
+        <v>16.8</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="8"/>
+        <v>39.200000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -718,20 +945,59 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CFC3C8-B0FD-432F-A10D-A4681A0DE583}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <f>SUM(Generators!F2:F4)*0.9</f>
+        <v>726.75</v>
+      </c>
+      <c r="B2">
+        <f>SUM(Generators!F2:F4)*0.25</f>
+        <v>201.875</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A5B90E4-2011-40C6-B022-5CECB5A542D3}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -745,7 +1011,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -759,7 +1025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -773,7 +1039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
